--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hari\Desktop\study\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F38F282-CD32-49A9-AEB6-4BF7D4E89957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF23B2F-A83B-4333-8EC0-07114D747B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="27" xr2:uid="{B9773D3A-9EB2-4ED4-980D-6EEBB59B6E6C}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="481">
   <si>
     <t>講座</t>
   </si>
@@ -1310,54 +1310,549 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>狭いながらも、このマンションは大好きだ</t>
+    <t>Even though it's small, I love the apartment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Intended for, Aimed at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This apartment has a lot of rooms and is targeted towards families</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>~ようとしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not willing to, Not making an effort to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He doesn't try to go to bed early</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>却って</t>
     <rPh sb="0" eb="1">
-      <t>セマ</t>
+      <t>カエ</t>
     </rPh>
-    <rPh sb="15" eb="17">
-      <t>ダイス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All the more, On the contrary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>That had rather better be left unsaid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ついでに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>While you are at it</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I'll give you lift to the station on my way to work</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一往</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ichiō</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">फिलहाल </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Toriaezu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんとなく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nantonaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Somehow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>展開</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tenkai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deployment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The more, To the extent that…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I'm so hungry I could die</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まさか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No way</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I could never do such a thing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一方（いっぽう）</t>
+    <rPh sb="0" eb="2">
+      <t>イッポウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Even though it's small, I love the apartment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>むけ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Intended for, Aimed at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このアパートは、部屋が多くて、ファミリー向けだ</t>
-    <rPh sb="8" eb="10">
-      <t>ヘヤ</t>
+    <t>More and more, Continue to, On the other hand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Many people love sweets, but who don't like also exist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再び（ふたたび）</t>
+    <rPh sb="0" eb="1">
+      <t>フタタ</t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>オオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Again, Once more, A second time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This year's japan trip was fun. Would like to come again next year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たる（あたる）</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
     </rPh>
-    <rPh sb="20" eb="21">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponds to, Amounts to </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For buying apartment we have done lots of investigation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>からこそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Emphasized, Precisely</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As I woke up early, I managed to be on time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くせに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even though, And yet, Despite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He is tall even though cannot run fast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だらけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Completely, Covered in, Full of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This room is completely covered in trash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わけだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For that reason, No wonder, Expect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He is living in japan for 10 years, so it is no wonder his japanese is good</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さえ～ば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If only.. then, As long as ..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I am happy as long as I have hime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In short, To sum up, In other words</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You mean you are student of this school?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直ちに（ただちに）</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>At once, Immediately</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I must do this work immediately</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ても構わない（てもかまわない）</t>
+    <rPh sb="2" eb="3">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>It doesn't matter if..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I don't mind if it rains</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次第（しだい）</t>
+    <rPh sb="0" eb="2">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As soon as</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let's depart once the rain stops</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>っぽなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Leaving something in a certain state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Please do not leave the water running</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ところが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I though it would be expensive because we bought a lot. Howeve, it was cheap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even so, However, Even though, But</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>をはじめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not only.. But also.. ,  Starting with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In spring in Japan, there is cherry blossom viewing and many other events</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For sure, For certain, Even more so</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This year I finally want to pass JLPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滅多に（めったに）</t>
+    <rPh sb="0" eb="2">
+      <t>メッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hardly, Rarely, Seldom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He rarely studies Japanese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たびに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Each time, Every time, Whenever</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I always get a lot of bags everytime I go shopping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>むしろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rather, Instead, Over</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I would rather play a game alone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最中に</t>
+    <rPh sb="0" eb="2">
+      <t>サイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the middle of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In the middle of the movie, the television broke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わけにはいけない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot afford to, No way</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つるつる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つるつると滑りやすいの違い？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sentence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slippery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道がつるつるになってるので、運転するわけにはいかない</t>
+    <rPh sb="14" eb="16">
+      <t>ウンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The road is slippery, so I cannot drive the car</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どころか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Far from, Anything but</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you do not study more, not even N2, N3 also seems to difficult</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりをする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To pretend, To act as if</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You are pretending to not know, but actually you know, right?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hard to, Difficult to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>It is hard to believe, but this is truth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たとえ～ても</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even if.. Is the case</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even if he is busy, he will come</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ば。。ほど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The more.. The more..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you study more, better your japanese will get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に限る（にかぎる）</t>
+    <rPh sb="1" eb="2">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nothing better than, Limited to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Staying in bed is best when you got cold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決して（けして）</t>
+    <rPh sb="0" eb="1">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Never, By no means</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I'll never give up on my dreams</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全く（まったく）</t>
+    <rPh sb="0" eb="1">
+      <t>マッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not.. At all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You don't study japanese at all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向き（むき）</t>
+    <rPh sb="0" eb="1">
       <t>ム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This apartment has a lot of rooms and is targeted towards families</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>~ようとしない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Not willing to, Not making an effort to</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>彼は早く寝ようとしない</t>
+    <t>Suitable for, Facing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>That movie is suitable for kids</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼は早く寝ようとしない。。。</t>
     <rPh sb="0" eb="1">
       <t>カレ</t>
     </rPh>
@@ -1370,170 +1865,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>He doesn't try to go to bed early</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>却って</t>
-    <rPh sb="0" eb="1">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>All the more, On the contrary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それは却って言わずにおく方がよい</t>
-    <rPh sb="3" eb="4">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>That had rather better be left unsaid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>new</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ついでに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>While you are at it</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕事へ行くついでに駅まで送ってあげるよ</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>エキ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I'll give you lift to the station on my way to work</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一往</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ichiō</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">फिलहाल </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>とりあえず</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Toriaezu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なんとなく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nantonaku</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Somehow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>展開</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tenkai</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Deployment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ほど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The more, To the extent that…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死ぬほどお腹が空いている</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I'm so hungry I could die</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まさか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No way</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>僕はまさかそんなことはできないよ</t>
-    <rPh sb="0" eb="1">
-      <t>ボク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I could never do such a thing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一方（いっぽう）</t>
-    <rPh sb="0" eb="2">
-      <t>イッポウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>More and more, Continue to, On the other hand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甘いものが好きな人がいる一方で、嫌いな人もいる</t>
+    <t>マンション買うにあたって、私たちいろいろな調査をしました。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘いものが好きな人がいる一方で、嫌いな人もいる。。。</t>
     <rPh sb="0" eb="1">
       <t>アマ</t>
     </rPh>
@@ -1555,22 +1891,269 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Many people love sweets, but who don't like also exist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再び（ふたたび）</t>
+    <t>それはかえって言わずにおくほうが良い。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信じがたいことだが、これは事実だ。。。</t>
     <rPh sb="0" eb="1">
-      <t>フタタ</t>
+      <t>シン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Again, Once more, A second time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今年の日本旅行は楽しかった。来年再びここに来たい</t>
+    <rPh sb="13" eb="15">
+      <t>ジジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早く起きたからこそ、間に合った。。。</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背が高いくせに早く走れない。。。</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私は決して夢をあきらめない。。。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年こそJLPTに受かりたい。。。</t>
+    <rPh sb="0" eb="2">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>映画の最中にテレビが壊れた。。。</t>
+    <rPh sb="0" eb="2">
+      <t>エイガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイチュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼さえいれば幸せです。。。</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シアワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨がやみ次第、出発することにしましょう。。。</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュッパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はこの仕事を直ちにしなければならない。。。</t>
+    <rPh sb="0" eb="1">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たとえ彼は忙しくても来るよ。。。</t>
+    <rPh sb="3" eb="4">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イソガ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物のたびに、袋がたくさんもらう。。。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フクロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この部屋ゴミだらけだ。。。</t>
+    <rPh sb="2" eb="4">
+      <t>ヘヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事へ行くついでに駅まで送ってあげるよ。。。</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水をだしっぽなしにしないでください。。。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり、うちの学校の学生ということ？。。。</t>
+    <rPh sb="7" eb="9">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨が降っても構わない。。。</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たくさん買ったため高くなると思った。ところが、安かった。。。</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もっと勉強しないと、N2どころかN３も無理だ。。。</t>
+    <rPh sb="3" eb="5">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ムリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狭いながらも、このマンションは大好きだ。。。</t>
+    <rPh sb="0" eb="1">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダイス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風邪の時には寝るに限る。。。</t>
+    <rPh sb="0" eb="2">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強すればするほど、日本語上手になるよ。。。</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今年の日本旅行は楽しかった。来年再びここに来たい。。。</t>
     <rPh sb="0" eb="2">
       <t>コトシ</t>
     </rPh>
@@ -1589,122 +2172,102 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This year's japan trip was fun. Would like to come again next year</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たる（あたる）</t>
+    <t>知らないふりをしてるけど本当は知っているでしょう。。。</t>
     <rPh sb="0" eb="1">
-      <t>ア</t>
+      <t>シ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponds to, Amounts to </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マンション買うにあったて、私たちいろいろな調査をしました</t>
+    <rPh sb="12" eb="14">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死ぬほどお腹が空いている。。。</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
     <rPh sb="5" eb="6">
-      <t>カ</t>
+      <t>ナカ</t>
     </rPh>
-    <rPh sb="13" eb="14">
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僕はまさかそんなことはできないよ。。。</t>
+    <rPh sb="0" eb="1">
+      <t>ボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたは日本語を全く勉強しない。。。</t>
+    <rPh sb="4" eb="7">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その映画は子供向きだ。。。</t>
+    <rPh sb="2" eb="4">
+      <t>エイガ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>コドモム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアパートは、部屋が多くて、ファミリー向けだ。。。</t>
+    <rPh sb="8" eb="10">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>私はむしろ一人でゲームしたい。。。</t>
+    <rPh sb="0" eb="1">
       <t>ワタシ</t>
     </rPh>
-    <rPh sb="21" eb="23">
-      <t>チョウサ</t>
+    <rPh sb="5" eb="7">
+      <t>ヒトリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>For buying apartment we have done lots of investigation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>からこそ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Emphasized, Precisely</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>早く起きたからこそ、間に合った</t>
+    <t>彼は滅多に日本語を勉強しない。。。</t>
     <rPh sb="0" eb="1">
-      <t>ハヤ</t>
+      <t>カレ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>オ</t>
+    <rPh sb="2" eb="4">
+      <t>メッタ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>マ</t>
+    <rPh sb="5" eb="8">
+      <t>ニホンゴ</t>
     </rPh>
-    <rPh sb="12" eb="13">
-      <t>ア</t>
+    <rPh sb="9" eb="11">
+      <t>ベンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>As I woke up early, I managed to be on time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>くせに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Even though, And yet, Despite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>背が高いくせに早く走れない</t>
-    <rPh sb="0" eb="1">
-      <t>セ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>He is tall even though cannot run fast</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>だらけ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>この部屋ゴミだらけだ</t>
-    <rPh sb="2" eb="4">
-      <t>ヘヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Completely, Covered in, Full of</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This room is completely covered in trash</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>わけだ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>For that reason, No wonder, Expect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>彼は10年日本に住んでるから、日本語が上手なわけだ</t>
+    <t>彼は10年日本に住んでるから、日本語が上手なわけだ。。。</t>
     <rPh sb="0" eb="1">
       <t>カレ</t>
     </rPh>
@@ -1723,190 +2286,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>He is living in japan for 10 years, so it is no wonder his japanese is good</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>さえ～ば</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>彼さえいれば幸せです</t>
-    <rPh sb="0" eb="1">
-      <t>カレ</t>
+    <t>道がつるつるになってるので、運転するわけにはいかない。。。</t>
+    <rPh sb="14" eb="16">
+      <t>ウンテン</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>シアワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If only.. then, As long as ..</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I am happy as long as I have hime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In short, To sum up, In other words</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つまり、うちの学校の学生ということ？</t>
-    <rPh sb="7" eb="9">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You mean you are student of this school?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直ちに（ただちに）</t>
-    <rPh sb="0" eb="1">
-      <t>タダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>At once, Immediately</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私はこの仕事を直ちにしなければならない</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I must do this work immediately</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ても構わない（てもかまわない）</t>
-    <rPh sb="2" eb="3">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It doesn't matter if..</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雨が降っても構わない</t>
-    <rPh sb="0" eb="1">
-      <t>アメ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I don't mind if it rains</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次第（しだい）</t>
-    <rPh sb="0" eb="2">
-      <t>シダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>As soon as</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雨がやみ次第、出発することにしましょう</t>
-    <rPh sb="0" eb="1">
-      <t>アメ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュッパツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Let's depart once the rain stops</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>っぽなし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Leaving something in a certain state</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水をだしっぽなしにしないでください</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Please do not leave the water running</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ところが</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>たくさん買ったため高くなると思った。ところが、安かった</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヤス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I though it would be expensive because we bought a lot. Howeve, it was cheap</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Even so, However, Even though, But</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>をはじめ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Not only.. But also.. ,  Starting with</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本の春は、お花見をはじめたくさんのイベントがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本の春は、お花見をはじめたくさんのイベントがある。。。</t>
     <rPh sb="0" eb="2">
       <t>ニホン</t>
     </rPh>
@@ -1916,404 +2303,6 @@
     <rPh sb="7" eb="9">
       <t>ハナミ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In spring in Japan, there is cherry blossom viewing and many other events</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こそ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>For sure, For certain, Even more so</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今年こそJLPTに受かりたい</t>
-    <rPh sb="0" eb="2">
-      <t>コトシ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This year I finally want to pass JLPT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>滅多に（めったに）</t>
-    <rPh sb="0" eb="2">
-      <t>メッタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hardly, Rarely, Seldom</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>彼は滅多に日本語を勉強しない</t>
-    <rPh sb="0" eb="1">
-      <t>カレ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メッタ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>He rarely studies Japanese</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>たびに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Each time, Every time, Whenever</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>買い物のたびに、袋がたくさんもらう</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フクロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I always get a lot of bags everytime I go shopping</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>むしろ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rather, Instead, Over</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私はむしろ一人でゲームしたい</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒトリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I would rather play a game alone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最中に</t>
-    <rPh sb="0" eb="2">
-      <t>サイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In the middle of</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>映画の最中にテレビが壊れた</t>
-    <rPh sb="0" eb="2">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイチュウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In the middle of the movie, the television broke</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>わけにはいけない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cannot afford to, No way</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つるつる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つるつると滑りやすいの違い？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sentence</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slippery</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>道がつるつるになってるので、運転するわけにはいかない</t>
-    <rPh sb="14" eb="16">
-      <t>ウンテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The road is slippery, so I cannot drive the car</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どころか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Far from, Anything but</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もっと勉強しないと、N2どころかN３も無理だ</t>
-    <rPh sb="3" eb="5">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ムリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you do not study more, not even N2, N3 also seems to difficult</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ふりをする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>To pretend, To act as if</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>知らないふりをしてるけど本当は知っているでしょう</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You are pretending to not know, but actually you know, right?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>がたい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hard to, Difficult to</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>信じがたいことだが、これは事実だが</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>It is hard to believe, but this is truth</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>たとえ～ても</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Even if.. Is the case</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>たとえ彼は忙しくても来るよ</t>
-    <rPh sb="3" eb="4">
-      <t>カレ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イソガ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Even if he is busy, he will come</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ば。。ほど</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>The more.. The more..</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勉強すればするほど、日本語上手になるよ。</t>
-    <rPh sb="0" eb="2">
-      <t>ベンキョウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>If you study more, better your japanese will get</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>に限る（にかぎる）</t>
-    <rPh sb="1" eb="2">
-      <t>カギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nothing better than, Limited to</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>風邪の時には寝るに限る</t>
-    <rPh sb="0" eb="2">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Staying in bed is best when you got cold</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決して（けして）</t>
-    <rPh sb="0" eb="1">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Never, By no means</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私は決して夢をあきらめない</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ユメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I'll never give up on my dreams</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全く（まったく）</t>
-    <rPh sb="0" eb="1">
-      <t>マッタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Not.. At all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あなたは日本語を全く勉強しない</t>
-    <rPh sb="4" eb="7">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マッタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ベンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>You don't study japanese at all</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>向き（むき）</t>
-    <rPh sb="0" eb="1">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Suitable for, Facing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その映画は子供向きだ</t>
-    <rPh sb="2" eb="4">
-      <t>エイガ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>コドモム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>That movie is suitable for kids</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -11017,13 +11006,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -11670,13 +11659,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -12320,24 +12309,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -12674,308 +12663,308 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" t="s">
-        <v>328</v>
-      </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" t="s">
         <v>329</v>
-      </c>
-      <c r="B5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="E9" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="D10" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="E10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="D11" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="D12" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B13" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="D13" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="E13" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="D14" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" t="s">
         <v>457</v>
       </c>
-      <c r="C15" t="s">
-        <v>458</v>
-      </c>
       <c r="D15" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="E15" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="D16" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="E16" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
+        <v>459</v>
       </c>
       <c r="D17" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>460</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="D19" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -12983,67 +12972,67 @@
         <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C20" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="D20" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B21" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="D21" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="C22" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="D22" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="B23" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="C23" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="D23" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="E23" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -13054,248 +13043,248 @@
         <v>318</v>
       </c>
       <c r="C24" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24" t="s">
         <v>319</v>
       </c>
-      <c r="D24" t="s">
-        <v>320</v>
-      </c>
       <c r="E24" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="C25" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D25" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="E25" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="B26" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="C26" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D26" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="E26" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B27" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C27" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="E27" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C28" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D28" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="E28" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="D29" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B30" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C30" t="s">
-        <v>355</v>
+        <v>472</v>
       </c>
       <c r="D30" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" t="s">
         <v>473</v>
       </c>
-      <c r="C31" t="s">
-        <v>474</v>
-      </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="E31" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="B32" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="C32" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D32" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="E32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" t="s">
         <v>321</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>475</v>
+      </c>
+      <c r="D33" t="s">
         <v>322</v>
       </c>
-      <c r="C33" t="s">
-        <v>323</v>
-      </c>
-      <c r="D33" t="s">
-        <v>324</v>
-      </c>
       <c r="E33" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B34" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="C34" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="D34" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="E34" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C35" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="D35" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="E35" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C36" t="s">
-        <v>383</v>
+        <v>478</v>
       </c>
       <c r="D36" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="C37" t="s">
-        <v>442</v>
+        <v>479</v>
       </c>
       <c r="D37" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="E37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="C38" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="D38" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="E38" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -13315,7 +13304,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13334,7 +13323,7 @@
         <v>41</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>87</v>
@@ -13342,16 +13331,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hari\Desktop\study\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF23B2F-A83B-4333-8EC0-07114D747B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF9220-E2AE-4F05-891E-102E9B80BA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="27" xr2:uid="{B9773D3A-9EB2-4ED4-980D-6EEBB59B6E6C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="28" xr2:uid="{B9773D3A-9EB2-4ED4-980D-6EEBB59B6E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="29" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="506">
   <si>
     <t>講座</t>
   </si>
@@ -2305,12 +2305,116 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>勤務表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Roster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kinmu-hyō</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不確実</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fukakujitsu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uncertain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とにかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ともかく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tonikaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">जेसे भी </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>वैसे</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tomokaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eventually</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結局 / 最終的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kekkyoku / Saishuuteki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たとえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼はたとえ忙しくても来るよ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"たとえ"has an emphatic meaning. And when you say "たとえ～", I feel  that you trust him.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rather</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javaはめっちゃ難しくてjavaむしろpythonのプロジェクトしたい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とにかく日本語勉強したい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"とにかく"  has  very  strong emphatic meaning.
+So use it, if you really want something or want to try something.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>any how</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>by the way</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ともかくビール飲みたい</t>
+    <rPh sb="7" eb="8">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2353,6 +2457,13 @@
       <color theme="1"/>
       <name val="Nirmala UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2420,14 +2531,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2445,20 +2556,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="55">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2472,13 +2598,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2492,13 +2627,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2512,13 +2656,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2532,13 +2685,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2552,13 +2714,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2572,13 +2743,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2592,143 +2772,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2771,22 +2830,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2809,22 +2859,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2847,22 +2888,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2885,22 +2917,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2923,22 +2946,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2961,22 +2975,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2999,22 +3004,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3037,22 +3033,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3075,22 +3062,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3113,22 +3091,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3151,22 +3120,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3189,22 +3149,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3227,6 +3178,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3246,6 +3207,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3262,6 +3233,132 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3540,7 +3637,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -3555,7 +3652,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3582,7 +3679,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
@@ -6752,7 +6849,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -6767,7 +6864,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -6794,7 +6891,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
@@ -10088,7 +10185,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}" name="テーブル3" displayName="テーブル3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}" name="テーブル3" displayName="テーブル3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="53">
   <autoFilter ref="A1:D3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{954C52DA-C907-4F02-9C9B-0B0AC43B93B0}" name="japanese"/>
@@ -10101,7 +10198,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}" name="テーブル13" displayName="テーブル13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}" name="テーブル13" displayName="テーブル13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A1:D8" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FDB07802-7B1F-42F0-A8D0-72CFD72D951F}" name="japanese"/>
@@ -10114,10 +10211,10 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}" name="テーブル2" displayName="テーブル2" ref="A1:D28" totalsRowShown="0" headerRowDxfId="46">
-  <autoFilter ref="A1:D28" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
-    <sortCondition ref="B1:B27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}" name="テーブル2" displayName="テーブル2" ref="A1:D30" totalsRowShown="0" headerRowDxfId="33">
+  <autoFilter ref="A1:D30" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
+    <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3D0A712D-891B-45BA-BA1F-B26F1E037397}" name="japanese"/>
@@ -10130,7 +10227,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}" name="テーブル14" displayName="テーブル14" ref="A1:D2" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}" name="テーブル14" displayName="テーブル14" ref="A1:D2" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:D2" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6F4D7220-B923-4646-8D57-6B4DDD485D2A}" name="japanese"/>
@@ -10143,7 +10240,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}" name="テーブル15" displayName="テーブル15" ref="A1:D4" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}" name="テーブル15" displayName="テーブル15" ref="A1:D4" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:D4" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{75559994-DDD8-4845-BEBD-723051133F59}" name="japanese"/>
@@ -10156,7 +10253,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}" name="テーブル16" displayName="テーブル16" ref="A1:D4" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}" name="テーブル16" displayName="テーブル16" ref="A1:D4" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:D4" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B6F19660-6BA9-49F4-B900-3BF333097E57}" name="japanese"/>
@@ -10169,7 +10266,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}" name="テーブル17" displayName="テーブル17" ref="A1:D2" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}" name="テーブル17" displayName="テーブル17" ref="A1:D2" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:D2" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CB8CF4B6-9B55-4A8E-BE24-83767C1EB42D}" name="japanese"/>
@@ -10182,7 +10279,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}" name="テーブル18" displayName="テーブル18" ref="A1:D2" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}" name="テーブル18" displayName="テーブル18" ref="A1:D2" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:D2" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3967FA74-0D97-4BD8-A0E9-6758B94F6AC1}" name="japanese"/>
@@ -10195,7 +10292,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}" name="テーブル19" displayName="テーブル19" ref="A1:D2" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}" name="テーブル19" displayName="テーブル19" ref="A1:D2" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:D2" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8EBD6EF9-2908-4317-99E3-F699646DC195}" name="japanese"/>
@@ -10208,7 +10305,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}" name="テーブル20" displayName="テーブル20" ref="A1:D4" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}" name="テーブル20" displayName="テーブル20" ref="A1:D4" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A1:D4" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E7993B1E-9ED2-49A7-8C44-C165883DBF0B}" name="japanese"/>
@@ -10221,7 +10318,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}" name="テーブル21" displayName="テーブル21" ref="A1:D18" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}" name="テーブル21" displayName="テーブル21" ref="A1:D18" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:D18" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
     <sortCondition ref="B1:B17"/>
@@ -10237,7 +10334,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}" name="テーブル4" displayName="テーブル4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}" name="テーブル4" displayName="テーブル4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="A1:D5" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CB0F9EF8-316B-4AAB-966F-3B68DCE090A6}" name="japanese"/>
@@ -10250,10 +10347,10 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}" name="テーブル22" displayName="テーブル22" ref="A1:D12" totalsRowShown="0" headerRowDxfId="37">
-  <autoFilter ref="A1:D12" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D8">
-    <sortCondition ref="B1:B8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}" name="テーブル22" displayName="テーブル22" ref="A1:D14" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:D14" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
+    <sortCondition ref="B1:B12"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D6C1BA6C-1E8F-43FF-BF3E-12CDDACF41A6}" name="japanese"/>
@@ -10266,7 +10363,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}" name="テーブル23" displayName="テーブル23" ref="A1:D3" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}" name="テーブル23" displayName="テーブル23" ref="A1:D3" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:D3" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F5E1015A-1D50-469F-9587-52639A5F7C0C}" name="japanese"/>
@@ -10279,7 +10376,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}" name="テーブル24" displayName="テーブル24" ref="A1:D2" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}" name="テーブル24" displayName="テーブル24" ref="A1:D2" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:D2" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{942531FD-9514-4FD4-BB98-F5A1EF03124D}" name="japanese"/>
@@ -10292,7 +10389,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}" name="テーブル25" displayName="テーブル25" ref="A1:D2" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}" name="テーブル25" displayName="テーブル25" ref="A1:D2" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:D2" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AB4D6CE9-8701-4455-A497-E0829C7B7DC1}" name="japanese"/>
@@ -10305,7 +10402,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}" name="テーブル26" displayName="テーブル26" ref="A1:D2" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}" name="テーブル26" displayName="テーブル26" ref="A1:D2" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:D2" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0B76D8C5-851F-4DA8-8B01-059BB0AE31E1}" name="japanese"/>
@@ -10318,7 +10415,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}" name="テーブル27" displayName="テーブル27" ref="A1:D2" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}" name="テーブル27" displayName="テーブル27" ref="A1:D2" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:D2" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EF31FAC3-C436-4473-A4B9-5E72EF3C6506}" name="japanese"/>
@@ -10331,7 +10428,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}" name="テーブル28" displayName="テーブル28" ref="A1:D2" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}" name="テーブル28" displayName="テーブル28" ref="A1:D2" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:D2" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AE3CA9A7-C4E6-477B-A1FA-FFD0B253B8BA}" name="japanese"/>
@@ -10344,7 +10441,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}" name="テーブル282" displayName="テーブル282" ref="A1:E38" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}" name="テーブル282" displayName="テーブル282" ref="A1:E38" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:E38" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
     <sortCondition ref="A1:A38"/>
@@ -10361,7 +10458,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32BCC42C-F0DA-4383-A46D-D25C3AA742A6}" name="テーブル6" displayName="テーブル6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32BCC42C-F0DA-4383-A46D-D25C3AA742A6}" name="テーブル6" displayName="テーブル6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:D2" xr:uid="{32BCC42C-F0DA-4383-A46D-D25C3AA742A6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CD98A99D-A270-4797-A962-CE3C1D2FE53D}" name="japanese"/>
@@ -10374,7 +10471,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}" name="テーブル7" displayName="テーブル7" ref="A1:D2" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}" name="テーブル7" displayName="テーブル7" ref="A1:D2" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:D2" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1130F660-EC73-42DB-9C08-62DEA50791C7}" name="japanese"/>
@@ -10387,7 +10484,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}" name="テーブル8" displayName="テーブル8" ref="A1:D2" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}" name="テーブル8" displayName="テーブル8" ref="A1:D2" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A1:D2" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FA9B534B-8CDF-4D49-8D77-6492A98A17F5}" name="japanese"/>
@@ -10400,8 +10497,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}" name="テーブル9" displayName="テーブル9" ref="A1:D2" totalsRowShown="0" headerRowDxfId="51">
-  <autoFilter ref="A1:D2" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}" name="テーブル9" displayName="テーブル9" ref="A1:D3" totalsRowShown="0" headerRowDxfId="43">
+  <autoFilter ref="A1:D3" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{61A6666F-6884-4384-84C2-E8B782197211}" name="japanese"/>
     <tableColumn id="2" xr3:uid="{AF6A1940-308A-4282-8D31-31D6FAEA7D57}" name="romaji"/>
@@ -10413,7 +10510,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}" name="テーブル10" displayName="テーブル10" ref="A1:D5" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}" name="テーブル10" displayName="テーブル10" ref="A1:D5" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="A1:D5" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{67A1A940-B08B-47FF-B674-B23CAFA5ED32}" name="japanese"/>
@@ -10426,7 +10523,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}" name="テーブル11" displayName="テーブル11" ref="A1:D9" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}" name="テーブル11" displayName="テーブル11" ref="A1:D9" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A1:D9" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
     <sortCondition ref="B1:B6"/>
@@ -10442,7 +10539,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}" name="テーブル12" displayName="テーブル12" ref="A1:D4" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}" name="テーブル12" displayName="テーブル12" ref="A1:D4" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="A1:D4" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F3034D7B-DF3A-4899-957A-36ECBF7B5181}" name="japanese"/>
@@ -10861,7 +10958,7 @@
       </c>
       <c r="F3">
         <f>COUNTIF(F!$A:$A,"*")-1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>COUNTIF(G!$A:$A,"*")-1</f>
@@ -10881,7 +10978,7 @@
       </c>
       <c r="K3">
         <f>COUNTIF(K!$A:$A,"*")-1</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3">
         <f>COUNTIF(L!$A:$A,"*")-1</f>
@@ -10917,7 +11014,7 @@
       </c>
       <c r="T3">
         <f>COUNTIF(T!$A:$A,"*")-1</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U3">
         <f>COUNTIF(U!$A:$A,"*")-1</f>
@@ -10957,7 +11054,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11018,7 +11115,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11137,7 +11234,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11148,16 +11245,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC1919D-59CD-4C6F-B9DB-4D5499F39E84}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
@@ -11346,140 +11443,162 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>481</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>483</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>277</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="C28" t="s">
-        <v>301</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>494</v>
+      </c>
+      <c r="B30" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11521,7 +11640,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11596,7 +11715,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11671,7 +11790,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11713,7 +11832,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11753,7 +11872,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11795,7 +11914,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11870,7 +11989,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11934,7 +12053,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12169,7 +12288,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12180,10 +12299,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D84181B-499F-4F28-8ED7-E19046615F54}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12232,110 +12351,132 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" t="s">
-        <v>307</v>
+        <v>337</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>335</v>
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12397,7 +12538,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12439,7 +12580,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12492,7 +12633,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12534,7 +12675,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12576,7 +12717,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12631,7 +12772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25991ABD-AE23-42D1-8330-9BAFE8DDD5FE}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13290,7 +13431,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C13">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13301,10 +13442,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D163A9-17D1-4EC6-B1D7-ED9F9F31F27F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13341,6 +13482,53 @@
       </c>
       <c r="D2" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -13426,7 +13614,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13466,7 +13654,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13519,7 +13707,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13572,7 +13760,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13583,9 +13771,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C906B-B15E-466F-80D7-2CADE5F5BCA3}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13620,10 +13810,21 @@
         <v>208</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C3" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13709,7 +13910,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13839,7 +14040,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hari\Desktop\study\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FF9220-E2AE-4F05-891E-102E9B80BA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753DBA6E-3D5E-4379-8FA2-0C190CDAA10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="28" xr2:uid="{B9773D3A-9EB2-4ED4-980D-6EEBB59B6E6C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="28" xr2:uid="{B9773D3A-9EB2-4ED4-980D-6EEBB59B6E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="29" r:id="rId1"/>
@@ -41,7 +41,8 @@
     <sheet name="Y" sheetId="5" r:id="rId26"/>
     <sheet name="Z" sheetId="4" r:id="rId27"/>
     <sheet name="JLPT-N3-Grammar" sheetId="30" r:id="rId28"/>
-    <sheet name="Special-Vocab" sheetId="31" r:id="rId29"/>
+    <sheet name="JLPT-N2-Grammar" sheetId="32" r:id="rId29"/>
+    <sheet name="Special-Vocab" sheetId="31" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="559">
   <si>
     <t>講座</t>
   </si>
@@ -1538,10 +1539,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>I am happy as long as I have hime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>In short, To sum up, In other words</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2407,6 +2404,354 @@
     <rPh sb="7" eb="8">
       <t>ノ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うえは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Once, Since, Now that, As long as</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行くと言ったうえは、絶対に行く。。。</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Once I said, I would definetely go</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のみならず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not only, Not just.. But, As well as</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He can speak not only english, but also japanese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抜きで（ぬきで）</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Without, Leaving out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成り立たない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Naritatanai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doesn't work</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Without rice japanese cuisine is incomplete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようでは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if ~(bad result)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今寝ないようでは、明日出かけられないよ。。。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アシタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米抜きで日本料理成り立たない。。。</t>
+    <rPh sb="0" eb="1">
+      <t>コメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼は英語のみならず、日本語も話せる。。。</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If you won't sleep now, tomorrow we won't out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After, As a conclusion of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I am happy as long as I have him</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>末（すえ）</t>
+    <rPh sb="0" eb="1">
+      <t>スエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悩んだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nayanda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>worried</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After so much thinking, I choose this university</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かねない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Someone) might do ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>It might become a problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Without a doubt, Not mistaken</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相違ない（そういない）</t>
+    <rPh sb="0" eb="2">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The content is truth without a doubt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にしても～にしても</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regardless of whether ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shoyō</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regardless of car or rail, required time doesn't change</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Due, Along with, Resulted in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に伴って（にともなって）</t>
+    <rPh sb="1" eb="2">
+      <t>トモナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台風に伴ってイベントが中止になった。。。</t>
+    <rPh sb="0" eb="2">
+      <t>タイフウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車にしても、電車にしても、所要時間が変わらない。。。</t>
+    <rPh sb="0" eb="1">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デンシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その内容は事実と相違ございません。。。</t>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジジツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題になりかねない。。。</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悩んだ末、この大学に決めた。。。</t>
+    <rPh sb="0" eb="1">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダイガク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Due to typhoon, the event got called off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>という風に（というふうに）</t>
+    <rPh sb="3" eb="4">
+      <t>フウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As if to say, In such a way that</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地球温暖化は一人一人の問題という風に思っています。。。</t>
+    <rPh sb="6" eb="10">
+      <t>ヒトリヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I think global warming is everyone's problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たまえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order somebody to do ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早く見せたまえ</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Show it quickly</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2566,25 +2911,16 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="67">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2598,22 +2934,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2627,22 +2954,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2656,22 +2974,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2685,22 +2994,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2714,22 +3014,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2743,22 +3034,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2772,22 +3054,233 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2830,13 +3323,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2859,13 +3361,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2888,13 +3399,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2917,13 +3437,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2946,13 +3475,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2975,13 +3513,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3004,13 +3551,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3033,13 +3589,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3062,13 +3627,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3091,13 +3665,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3120,13 +3703,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3149,13 +3741,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3178,13 +3779,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3207,16 +3817,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3233,132 +3833,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3661,7 +4135,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -3676,7 +4150,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>13</c:v>
@@ -6873,7 +7347,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -6888,7 +7362,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>13</c:v>
@@ -10185,7 +10659,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}" name="テーブル3" displayName="テーブル3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}" name="テーブル3" displayName="テーブル3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="66">
   <autoFilter ref="A1:D3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{954C52DA-C907-4F02-9C9B-0B0AC43B93B0}" name="japanese"/>
@@ -10198,7 +10672,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}" name="テーブル13" displayName="テーブル13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}" name="テーブル13" displayName="テーブル13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="57">
   <autoFilter ref="A1:D8" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FDB07802-7B1F-42F0-A8D0-72CFD72D951F}" name="japanese"/>
@@ -10211,7 +10685,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}" name="テーブル2" displayName="テーブル2" ref="A1:D30" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}" name="テーブル2" displayName="テーブル2" ref="A1:D30" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:D30" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
     <sortCondition ref="B1:B29"/>
@@ -10227,7 +10701,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}" name="テーブル14" displayName="テーブル14" ref="A1:D2" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}" name="テーブル14" displayName="テーブル14" ref="A1:D2" totalsRowShown="0" headerRowDxfId="55">
   <autoFilter ref="A1:D2" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6F4D7220-B923-4646-8D57-6B4DDD485D2A}" name="japanese"/>
@@ -10240,7 +10714,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}" name="テーブル15" displayName="テーブル15" ref="A1:D4" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}" name="テーブル15" displayName="テーブル15" ref="A1:D4" totalsRowShown="0" headerRowDxfId="54">
   <autoFilter ref="A1:D4" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{75559994-DDD8-4845-BEBD-723051133F59}" name="japanese"/>
@@ -10253,8 +10727,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}" name="テーブル16" displayName="テーブル16" ref="A1:D4" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A1:D4" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}" name="テーブル16" displayName="テーブル16" ref="A1:D6" totalsRowShown="0" headerRowDxfId="53">
+  <autoFilter ref="A1:D6" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B6F19660-6BA9-49F4-B900-3BF333097E57}" name="japanese"/>
     <tableColumn id="2" xr3:uid="{EF189E38-C4D7-472E-9593-13CD03EF9158}" name="romaji"/>
@@ -10266,7 +10740,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}" name="テーブル17" displayName="テーブル17" ref="A1:D2" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}" name="テーブル17" displayName="テーブル17" ref="A1:D2" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A1:D2" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CB8CF4B6-9B55-4A8E-BE24-83767C1EB42D}" name="japanese"/>
@@ -10279,7 +10753,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}" name="テーブル18" displayName="テーブル18" ref="A1:D2" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}" name="テーブル18" displayName="テーブル18" ref="A1:D2" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="A1:D2" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3967FA74-0D97-4BD8-A0E9-6758B94F6AC1}" name="japanese"/>
@@ -10292,7 +10766,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}" name="テーブル19" displayName="テーブル19" ref="A1:D2" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}" name="テーブル19" displayName="テーブル19" ref="A1:D2" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="A1:D2" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8EBD6EF9-2908-4317-99E3-F699646DC195}" name="japanese"/>
@@ -10305,7 +10779,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}" name="テーブル20" displayName="テーブル20" ref="A1:D4" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}" name="テーブル20" displayName="テーブル20" ref="A1:D4" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:D4" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E7993B1E-9ED2-49A7-8C44-C165883DBF0B}" name="japanese"/>
@@ -10318,8 +10792,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}" name="テーブル21" displayName="テーブル21" ref="A1:D18" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:D18" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}" name="テーブル21" displayName="テーブル21" ref="A1:D19" totalsRowShown="0" headerRowDxfId="48">
+  <autoFilter ref="A1:D19" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
     <sortCondition ref="B1:B17"/>
   </sortState>
@@ -10334,7 +10808,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}" name="テーブル4" displayName="テーブル4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}" name="テーブル4" displayName="テーブル4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="65">
   <autoFilter ref="A1:D5" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CB0F9EF8-316B-4AAB-966F-3B68DCE090A6}" name="japanese"/>
@@ -10347,7 +10821,7 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}" name="テーブル22" displayName="テーブル22" ref="A1:D14" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}" name="テーブル22" displayName="テーブル22" ref="A1:D14" totalsRowShown="0" headerRowDxfId="47">
   <autoFilter ref="A1:D14" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
     <sortCondition ref="B1:B12"/>
@@ -10363,7 +10837,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}" name="テーブル23" displayName="テーブル23" ref="A1:D3" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}" name="テーブル23" displayName="テーブル23" ref="A1:D3" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="A1:D3" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F5E1015A-1D50-469F-9587-52639A5F7C0C}" name="japanese"/>
@@ -10376,7 +10850,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}" name="テーブル24" displayName="テーブル24" ref="A1:D2" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}" name="テーブル24" displayName="テーブル24" ref="A1:D2" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="A1:D2" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{942531FD-9514-4FD4-BB98-F5A1EF03124D}" name="japanese"/>
@@ -10389,7 +10863,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}" name="テーブル25" displayName="テーブル25" ref="A1:D2" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}" name="テーブル25" displayName="テーブル25" ref="A1:D2" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="A1:D2" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AB4D6CE9-8701-4455-A497-E0829C7B7DC1}" name="japanese"/>
@@ -10402,7 +10876,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}" name="テーブル26" displayName="テーブル26" ref="A1:D2" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}" name="テーブル26" displayName="テーブル26" ref="A1:D2" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="A1:D2" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0B76D8C5-851F-4DA8-8B01-059BB0AE31E1}" name="japanese"/>
@@ -10415,7 +10889,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}" name="テーブル27" displayName="テーブル27" ref="A1:D2" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}" name="テーブル27" displayName="テーブル27" ref="A1:D2" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:D2" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EF31FAC3-C436-4473-A4B9-5E72EF3C6506}" name="japanese"/>
@@ -10428,7 +10902,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}" name="テーブル28" displayName="テーブル28" ref="A1:D2" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}" name="テーブル28" displayName="テーブル28" ref="A1:D2" totalsRowShown="0" headerRowDxfId="41">
   <autoFilter ref="A1:D2" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AE3CA9A7-C4E6-477B-A1FA-FFD0B253B8BA}" name="japanese"/>
@@ -10441,7 +10915,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}" name="テーブル282" displayName="テーブル282" ref="A1:E38" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}" name="テーブル282" displayName="テーブル282" ref="A1:E38" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A1:E38" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
     <sortCondition ref="A1:A38"/>
@@ -10457,8 +10931,25 @@
 </table>
 </file>
 
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{DCE4D991-55B0-402E-BADE-84929DB848D5}" name="テーブル28230" displayName="テーブル28230" ref="A1:E12" totalsRowShown="0" headerRowDxfId="39">
+  <autoFilter ref="A1:E12" xr:uid="{DCE4D991-55B0-402E-BADE-84929DB848D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
+    <sortCondition ref="A1:A2"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{248EACB4-0F59-44A0-9BAB-63C5E37AE4E8}" name="Pattern"/>
+    <tableColumn id="5" xr3:uid="{B420C836-7653-4552-9D40-5B432749EA51}" name="reading"/>
+    <tableColumn id="2" xr3:uid="{05DCF728-3DBB-4EFF-AABB-D66A4E9374AD}" name="example"/>
+    <tableColumn id="3" xr3:uid="{941BA1A6-94C2-40AA-B7D1-1FF5565DCF48}" name="meaning"/>
+    <tableColumn id="4" xr3:uid="{440C445A-CAAE-4525-8665-9F8375634EFD}" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32BCC42C-F0DA-4383-A46D-D25C3AA742A6}" name="テーブル6" displayName="テーブル6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32BCC42C-F0DA-4383-A46D-D25C3AA742A6}" name="テーブル6" displayName="テーブル6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="64">
   <autoFilter ref="A1:D2" xr:uid="{32BCC42C-F0DA-4383-A46D-D25C3AA742A6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CD98A99D-A270-4797-A962-CE3C1D2FE53D}" name="japanese"/>
@@ -10471,7 +10962,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}" name="テーブル7" displayName="テーブル7" ref="A1:D2" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}" name="テーブル7" displayName="テーブル7" ref="A1:D2" totalsRowShown="0" headerRowDxfId="63">
   <autoFilter ref="A1:D2" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1130F660-EC73-42DB-9C08-62DEA50791C7}" name="japanese"/>
@@ -10484,7 +10975,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}" name="テーブル8" displayName="テーブル8" ref="A1:D2" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}" name="テーブル8" displayName="テーブル8" ref="A1:D2" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="A1:D2" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FA9B534B-8CDF-4D49-8D77-6492A98A17F5}" name="japanese"/>
@@ -10497,7 +10988,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}" name="テーブル9" displayName="テーブル9" ref="A1:D3" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}" name="テーブル9" displayName="テーブル9" ref="A1:D3" totalsRowShown="0" headerRowDxfId="61">
   <autoFilter ref="A1:D3" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{61A6666F-6884-4384-84C2-E8B782197211}" name="japanese"/>
@@ -10510,7 +11001,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}" name="テーブル10" displayName="テーブル10" ref="A1:D5" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}" name="テーブル10" displayName="テーブル10" ref="A1:D5" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="A1:D5" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{67A1A940-B08B-47FF-B674-B23CAFA5ED32}" name="japanese"/>
@@ -10523,7 +11014,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}" name="テーブル11" displayName="テーブル11" ref="A1:D9" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}" name="テーブル11" displayName="テーブル11" ref="A1:D9" totalsRowShown="0" headerRowDxfId="59">
   <autoFilter ref="A1:D9" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
     <sortCondition ref="B1:B6"/>
@@ -10539,7 +11030,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}" name="テーブル12" displayName="テーブル12" ref="A1:D4" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}" name="テーブル12" displayName="テーブル12" ref="A1:D4" totalsRowShown="0" headerRowDxfId="58">
   <autoFilter ref="A1:D4" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F3034D7B-DF3A-4899-957A-36ECBF7B5181}" name="japanese"/>
@@ -10990,7 +11481,7 @@
       </c>
       <c r="N3">
         <f>COUNTIF(N!$A:$A,"*")-1</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O3">
         <f>COUNTIF(O!$A:$A,"*")-1</f>
@@ -11010,7 +11501,7 @@
       </c>
       <c r="S3">
         <f>COUNTIF(S!$A:$A,"*")-1</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T3">
         <f>COUNTIF(T!$A:$A,"*")-1</f>
@@ -11115,7 +11606,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11234,7 +11725,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11487,13 +11978,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" t="s">
         <v>481</v>
-      </c>
-      <c r="B21" t="s">
-        <v>483</v>
-      </c>
-      <c r="C21" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -11586,19 +12077,19 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
+        <v>493</v>
+      </c>
+      <c r="B30" t="s">
         <v>494</v>
       </c>
-      <c r="B30" t="s">
-        <v>495</v>
-      </c>
       <c r="C30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11640,7 +12131,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11715,7 +12206,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11726,10 +12217,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A58B16-D77F-468C-854E-AF69A7751D93}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11787,10 +12278,32 @@
         <v>340</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11832,7 +12345,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11872,7 +12385,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11989,7 +12502,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12053,7 +12566,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12064,10 +12577,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BCF391-2103-45BF-8E99-CF9649F03CCF}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12285,10 +12798,21 @@
         <v>196</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>539</v>
+      </c>
+      <c r="B19" t="s">
+        <v>540</v>
+      </c>
+      <c r="C19" t="s">
+        <v>541</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12450,33 +12974,33 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12538,7 +13062,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12580,7 +13104,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12633,7 +13157,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12675,7 +13199,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12717,7 +13241,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12759,7 +13283,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12773,7 +13297,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12810,7 +13334,7 @@
         <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D2" t="s">
         <v>325</v>
@@ -12827,7 +13351,7 @@
         <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D3" t="s">
         <v>358</v>
@@ -12844,7 +13368,7 @@
         <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
         <v>352</v>
@@ -12861,7 +13385,7 @@
         <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
         <v>328</v>
@@ -12872,16 +13396,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" t="s">
         <v>423</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D6" t="s">
         <v>424</v>
-      </c>
-      <c r="C6" t="s">
-        <v>448</v>
-      </c>
-      <c r="D6" t="s">
-        <v>425</v>
       </c>
       <c r="E6" t="s">
         <v>329</v>
@@ -12895,7 +13419,7 @@
         <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
         <v>361</v>
@@ -12912,7 +13436,7 @@
         <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
         <v>364</v>
@@ -12923,16 +13447,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" t="s">
         <v>435</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" t="s">
         <v>436</v>
-      </c>
-      <c r="C9" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" t="s">
-        <v>437</v>
       </c>
       <c r="E9" t="s">
         <v>329</v>
@@ -12940,16 +13464,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
         <v>394</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" t="s">
         <v>395</v>
-      </c>
-      <c r="C10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" t="s">
-        <v>396</v>
       </c>
       <c r="E10" t="s">
         <v>329</v>
@@ -12957,16 +13481,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
         <v>406</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D11" t="s">
         <v>407</v>
-      </c>
-      <c r="C11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D11" t="s">
-        <v>408</v>
       </c>
       <c r="E11" t="s">
         <v>329</v>
@@ -12980,10 +13504,10 @@
         <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>525</v>
       </c>
       <c r="E12" t="s">
         <v>329</v>
@@ -12991,16 +13515,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B13" t="s">
         <v>382</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" t="s">
         <v>383</v>
-      </c>
-      <c r="C13" t="s">
-        <v>455</v>
-      </c>
-      <c r="D13" t="s">
-        <v>384</v>
       </c>
       <c r="E13" t="s">
         <v>329</v>
@@ -13008,16 +13532,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" t="s">
         <v>376</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>455</v>
+      </c>
+      <c r="D14" t="s">
         <v>377</v>
-      </c>
-      <c r="C14" t="s">
-        <v>456</v>
-      </c>
-      <c r="D14" t="s">
-        <v>378</v>
       </c>
       <c r="E14" t="s">
         <v>329</v>
@@ -13025,16 +13549,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B15" t="s">
         <v>426</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" t="s">
         <v>427</v>
-      </c>
-      <c r="C15" t="s">
-        <v>457</v>
-      </c>
-      <c r="D15" t="s">
-        <v>428</v>
       </c>
       <c r="E15" t="s">
         <v>329</v>
@@ -13042,16 +13566,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" t="s">
         <v>400</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D16" t="s">
         <v>401</v>
-      </c>
-      <c r="C16" t="s">
-        <v>458</v>
-      </c>
-      <c r="D16" t="s">
-        <v>402</v>
       </c>
       <c r="E16" t="s">
         <v>329</v>
@@ -13065,7 +13589,7 @@
         <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D17" t="s">
         <v>367</v>
@@ -13082,7 +13606,7 @@
         <v>331</v>
       </c>
       <c r="C18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D18" t="s">
         <v>332</v>
@@ -13093,16 +13617,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" t="s">
         <v>385</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>460</v>
+      </c>
+      <c r="D19" t="s">
         <v>386</v>
-      </c>
-      <c r="C19" t="s">
-        <v>461</v>
-      </c>
-      <c r="D19" t="s">
-        <v>387</v>
       </c>
       <c r="E19" t="s">
         <v>329</v>
@@ -13113,13 +13637,13 @@
         <v>266</v>
       </c>
       <c r="B20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" t="s">
         <v>374</v>
-      </c>
-      <c r="C20" t="s">
-        <v>462</v>
-      </c>
-      <c r="D20" t="s">
-        <v>375</v>
       </c>
       <c r="E20" t="s">
         <v>329</v>
@@ -13127,16 +13651,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" t="s">
         <v>379</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" t="s">
         <v>380</v>
-      </c>
-      <c r="C21" t="s">
-        <v>463</v>
-      </c>
-      <c r="D21" t="s">
-        <v>381</v>
       </c>
       <c r="E21" t="s">
         <v>329</v>
@@ -13144,16 +13668,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" t="s">
+        <v>463</v>
+      </c>
+      <c r="D22" t="s">
         <v>388</v>
-      </c>
-      <c r="B22" t="s">
-        <v>390</v>
-      </c>
-      <c r="C22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D22" t="s">
-        <v>389</v>
       </c>
       <c r="E22" t="s">
         <v>329</v>
@@ -13161,16 +13685,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B23" t="s">
         <v>417</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" t="s">
         <v>418</v>
-      </c>
-      <c r="C23" t="s">
-        <v>465</v>
-      </c>
-      <c r="D23" t="s">
-        <v>419</v>
       </c>
       <c r="E23" t="s">
         <v>329</v>
@@ -13184,7 +13708,7 @@
         <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D24" t="s">
         <v>319</v>
@@ -13195,16 +13719,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" t="s">
         <v>432</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D25" t="s">
         <v>433</v>
-      </c>
-      <c r="C25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D25" t="s">
-        <v>434</v>
       </c>
       <c r="E25" t="s">
         <v>329</v>
@@ -13212,16 +13736,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>428</v>
+      </c>
+      <c r="B26" t="s">
         <v>429</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>467</v>
+      </c>
+      <c r="D26" t="s">
         <v>430</v>
-      </c>
-      <c r="C26" t="s">
-        <v>468</v>
-      </c>
-      <c r="D26" t="s">
-        <v>431</v>
       </c>
       <c r="E26" t="s">
         <v>329</v>
@@ -13235,7 +13759,7 @@
         <v>354</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D27" t="s">
         <v>355</v>
@@ -13246,16 +13770,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" t="s">
         <v>420</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>469</v>
+      </c>
+      <c r="D28" t="s">
         <v>421</v>
-      </c>
-      <c r="C28" t="s">
-        <v>470</v>
-      </c>
-      <c r="D28" t="s">
-        <v>422</v>
       </c>
       <c r="E28" t="s">
         <v>329</v>
@@ -13269,7 +13793,7 @@
         <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D29" t="s">
         <v>346</v>
@@ -13283,7 +13807,7 @@
         <v>348</v>
       </c>
       <c r="C30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D30" t="s">
         <v>349</v>
@@ -13294,16 +13818,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B31" t="s">
         <v>438</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>472</v>
+      </c>
+      <c r="D31" t="s">
         <v>439</v>
-      </c>
-      <c r="C31" t="s">
-        <v>473</v>
-      </c>
-      <c r="D31" t="s">
-        <v>440</v>
       </c>
       <c r="E31" t="s">
         <v>329</v>
@@ -13311,16 +13835,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" t="s">
         <v>441</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>473</v>
+      </c>
+      <c r="D32" t="s">
         <v>442</v>
-      </c>
-      <c r="C32" t="s">
-        <v>474</v>
-      </c>
-      <c r="D32" t="s">
-        <v>443</v>
       </c>
       <c r="E32" t="s">
         <v>329</v>
@@ -13334,7 +13858,7 @@
         <v>321</v>
       </c>
       <c r="C33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D33" t="s">
         <v>322</v>
@@ -13345,16 +13869,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B34" t="s">
         <v>403</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" t="s">
         <v>404</v>
-      </c>
-      <c r="C34" t="s">
-        <v>476</v>
-      </c>
-      <c r="D34" t="s">
-        <v>405</v>
       </c>
       <c r="E34" t="s">
         <v>329</v>
@@ -13362,16 +13886,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
+        <v>396</v>
+      </c>
+      <c r="B35" t="s">
         <v>397</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>476</v>
+      </c>
+      <c r="D35" t="s">
         <v>398</v>
-      </c>
-      <c r="C35" t="s">
-        <v>477</v>
-      </c>
-      <c r="D35" t="s">
-        <v>399</v>
       </c>
       <c r="E35" t="s">
         <v>329</v>
@@ -13385,7 +13909,7 @@
         <v>369</v>
       </c>
       <c r="C36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D36" t="s">
         <v>370</v>
@@ -13396,16 +13920,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
+        <v>408</v>
+      </c>
+      <c r="B37" t="s">
         <v>409</v>
       </c>
-      <c r="B37" t="s">
-        <v>410</v>
-      </c>
       <c r="C37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D37" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E37" t="s">
         <v>329</v>
@@ -13413,16 +13937,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" t="s">
         <v>391</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>479</v>
+      </c>
+      <c r="D38" t="s">
         <v>392</v>
-      </c>
-      <c r="C38" t="s">
-        <v>480</v>
-      </c>
-      <c r="D38" t="s">
-        <v>393</v>
       </c>
       <c r="E38" t="s">
         <v>329</v>
@@ -13431,7 +13955,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C13">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13441,99 +13965,226 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D163A9-17D1-4EC6-B1D7-ED9F9F31F27F}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3804E47-1C66-4555-9677-D8029AB2C143}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>415</v>
+        <v>506</v>
+      </c>
+      <c r="C2" t="s">
+        <v>507</v>
       </c>
       <c r="D2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>509</v>
+      </c>
+      <c r="B3" t="s">
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>511</v>
+      </c>
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>512</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="C4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.55000000000000004">
+        <v>521</v>
+      </c>
+      <c r="D4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>503</v>
+        <v>518</v>
+      </c>
+      <c r="B5" t="s">
+        <v>519</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>520</v>
+      </c>
+      <c r="D5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>488</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>504</v>
+        <v>526</v>
+      </c>
+      <c r="B6" t="s">
+        <v>524</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>549</v>
+      </c>
+      <c r="D6" t="s">
+        <v>530</v>
+      </c>
+      <c r="E6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" t="s">
+        <v>546</v>
+      </c>
+      <c r="D9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11" t="s">
+        <v>553</v>
+      </c>
+      <c r="D11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C12" t="s">
+        <v>557</v>
+      </c>
+      <c r="D12" t="s">
+        <v>558</v>
+      </c>
+      <c r="E12" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C1:C12">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -13614,12 +14265,109 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D163A9-17D1-4EC6-B1D7-ED9F9F31F27F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13654,7 +14402,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13707,7 +14455,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13760,7 +14508,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13812,19 +14560,19 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B3" t="s">
         <v>484</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>485</v>
-      </c>
-      <c r="C3" t="s">
-        <v>486</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13910,7 +14658,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14040,7 +14788,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hari\Desktop\study\japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753DBA6E-3D5E-4379-8FA2-0C190CDAA10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C2B8DE-0F23-4290-B00E-470258C3CB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="28" xr2:uid="{B9773D3A-9EB2-4ED4-980D-6EEBB59B6E6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="14" activeTab="28" xr2:uid="{B9773D3A-9EB2-4ED4-980D-6EEBB59B6E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD" sheetId="29" r:id="rId1"/>
@@ -32,8 +32,8 @@
     <sheet name="P" sheetId="14" r:id="rId17"/>
     <sheet name="Q" sheetId="13" r:id="rId18"/>
     <sheet name="R" sheetId="12" r:id="rId19"/>
-    <sheet name="S" sheetId="11" r:id="rId20"/>
-    <sheet name="T" sheetId="10" r:id="rId21"/>
+    <sheet name="T" sheetId="10" r:id="rId20"/>
+    <sheet name="S" sheetId="11" r:id="rId21"/>
     <sheet name="U" sheetId="9" r:id="rId22"/>
     <sheet name="V" sheetId="8" r:id="rId23"/>
     <sheet name="W" sheetId="7" r:id="rId24"/>
@@ -45,6 +45,7 @@
     <sheet name="Special-Vocab" sheetId="31" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="733">
   <si>
     <t>講座</t>
   </si>
@@ -1718,13 +1719,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>道がつるつるになってるので、運転するわけにはいかない</t>
-    <rPh sb="14" eb="16">
-      <t>ウンテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>The road is slippery, so I cannot drive the car</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2741,7 +2735,150 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>早く見せたまえ</t>
+    <t>Show it quickly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道がつるつるになってるので、運転できない</t>
+    <rPh sb="14" eb="16">
+      <t>ウンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knew that</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼は頭がいいね。やっぱりそうですね。</t>
+    <rPh sb="2" eb="3">
+      <t>アタマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He is intelligent. I knew it.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やっぱり/やはり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Since, Henceforth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>て以来（ていらい）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>It was the first time for the olympics to be held in Tokyo since 1964</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一応（いちおう）</t>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Just in case, Just to be sure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Let's also buy milk just in case</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even if, Even though, No matter how</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勉強したって、あなたにかなうわけない。</t>
+    <rPh sb="0" eb="2">
+      <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even if I would study hard, I can't beat you.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限り（かぎり）</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As long as, While.., is the case, Limited to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I will study unless I have passed JLPT N1.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に関わる（にかかわる）</t>
+    <rPh sb="1" eb="2">
+      <t>カカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To relate to, To have to do with</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数々</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kazukazu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>many</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪しい（あやしい）</t>
+    <rPh sb="0" eb="1">
+      <t>アヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ayashii</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suspicious</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪しい会社にはかかわれたくない。。。</t>
+    <rPh sb="0" eb="1">
+      <t>アヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JLPT N1に合格できていない限り、勉強する。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>早く見せたまえ。。。</t>
     <rPh sb="0" eb="1">
       <t>ハヤ</t>
     </rPh>
@@ -2751,7 +2888,885 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Show it quickly</t>
+    <t>東京でオリンピックが行われたのは、１９６４年以来、初めてだ。。。</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一応牛乳買っておこうか。。。</t>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I don't want to be part of suspicious company</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸いなことに（さいわいなことに）</t>
+    <rPh sb="0" eb="1">
+      <t>サイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Luckily, Fortunately</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幸い、この会社に入った。。。</t>
+    <rPh sb="0" eb="1">
+      <t>サイワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Luckily, I got this job</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界に知り得ない事が沢山ある。。。</t>
+    <rPh sb="0" eb="2">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タクサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得ない（えない）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unable to, It is not possible to ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>There are so many things which are not possible to know in the world.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要するに（ようするに）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To sum up, In summary, In short</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fusoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shortage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要するに、結婚する？</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッコン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In short, will you marry?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>協力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cooperation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kyōryoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にあたり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>On the occasion of ~, At the time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運管</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unkan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Every person please cooperate with 200yen for management.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運管にあたり、一人２００円のご協力をお願いします。。。</t>
+    <rPh sb="0" eb="2">
+      <t>ウンカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たところで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even if ~, No matter(who, what, when)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今出発したところで、もう間に合わないだろう。。。</t>
+    <rPh sb="0" eb="3">
+      <t>イマシュッパツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even if we leave now, we won't be able to be on time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>際に（さいに）</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>When, At the time of, In case of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く際には、車にご注意ください。。。</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クルマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Be careful of the car when walking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>からには</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As long as, Since, Now that</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振込</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Furikomi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>transfer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やるからには、やり切りたい。。。</t>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Now that I started it, I want to finish it</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きらいがある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Have a tendency to, Tend to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He tends to stay on the sofa once he sits down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>をいいことに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To take advantage of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先生が見えてないことをいいことに弁当を食べた。。。</t>
+    <rPh sb="0" eb="2">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ベントウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼は一旦ソファーに座ると動かないきらいがある。。。</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I took advantage of teacher, when he was not looking at me, I ate my lunch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だけのことはある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No Wonder, As expected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No wonder you give me advice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君は意見するだけのことはあるな。。。</t>
+    <rPh sb="0" eb="1">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だけあって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Is only natural, Precisely because</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>It is only natural his skin is so smooth, because he is baby</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤ちゃんだけあって、お肌がスベスベしている。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どころではない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is not the time/place for..</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今忙しくてそれどころではない。。。</t>
+    <rPh sb="0" eb="2">
+      <t>イマイソガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is not a good time right now because we are so busy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に反して（にはんして）</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Go against, Contrary to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルールに反して彼らは先に出発した。。。</t>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュッパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Against the rules, they have left first.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あげく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After, In the end, After all, Finally</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼らが大喧嘩したあげく、親友になった。。。</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>They become best friends after a big fight.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Still, Even, Yet, Furthermore, In addition~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Each person can buy only two items. Furthermore, no exchange return on sale items.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>っこない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>There is no chance of/no way of</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I can study anymore.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上に</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>More than, No less than, Even more</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美味しい食べ物以上に幸せなことはない。。。</t>
+    <rPh sb="0" eb="2">
+      <t>オイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シアワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お一人様2点まで購入いただけます。なお、 セール品につき返品・交換はできません。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ以上勉強できっこない。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nothing makes me more happier than tasty food</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かねる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unable to do ~, Hesitate to, Can't do ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賛成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sansei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Agree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼の考えには賛成しかねる。。。</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I am unable to agree with him.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おまけに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>To make matters worse, Besides</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This vegetable was tasty. Beside that it was cheaper than usual.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ものか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>There is no way ~, Do you really think~?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Do you really think he'll betray us.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうやら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apparently, Seems like, Possible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうやら電車が遅れているらしい。。。</t>
+    <rPh sb="4" eb="6">
+      <t>デンシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼が私たちを裏切るものか。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この野菜美味しかった。おまけにいつもより安かった。。。</t>
+    <rPh sb="2" eb="4">
+      <t>ヤサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>possibly train is late.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にっけて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Whenever, Everytime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彼は何かにっけて、文句を言ってくる。。。</t>
+    <rPh sb="0" eb="1">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>He often complains whenever there is opportunities.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を通じて（をつうじて）</t>
+    <rPh sb="1" eb="2">
+      <t>ツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Through, Via, Throughout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターンシップをつうじて、人脈が広がった。</t>
+    <rPh sb="17" eb="18">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Through internship, my personal connections increased.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>からして</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even.., Judging from, Based on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その喋り方からして、北海道の人だと思う。。。</t>
+    <rPh sb="2" eb="3">
+      <t>シャベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Judging from the way he speaks, I think he is from Hokkaido. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにしろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>After all, In fact, Because, At any rate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにしろ最近引っ越してきたもので、この辺りのことがよくわからない。。。</t>
+    <rPh sb="4" eb="6">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Because I moved recently here, I have no idea about this location.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とっくに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Already, A long time ago, Long ago</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿題ならとっくに終わっているよ。。。</t>
+    <rPh sb="0" eb="2">
+      <t>シュクダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I finished my homework a long time ago.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暮らし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kurashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>living</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～てこそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Now that, Since(something happened)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人暮らししてこそ、親のありがたみが分かるというものだ。。。</t>
+    <rPh sb="0" eb="3">
+      <t>ヒトリク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Only after living by yourself, you will know how helpful your parents were.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得る（える。うる）</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Is able to, Can, Possible to ~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犯罪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanzai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犯罪になり得るには、手を出さない。。。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンザイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I won't do anything which can be a crime.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手前</t>
+    <rPh sb="0" eb="2">
+      <t>テマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Before, In front of, From one's standpoint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上司の手前、会社の悪口は言えない。。。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テマエ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ワルグチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I can't complain about my company in front of boss.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わずかに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slightly, Only, A little, Barely</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電車がわずかに遅れている。。。</t>
+    <rPh sb="0" eb="2">
+      <t>デンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Train is slightly late.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に向かって（にむかって）</t>
+    <rPh sb="1" eb="2">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Towards, To face, To head to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太陽に向かって走れ。。。</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Run towards the sun.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2911,267 +3926,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="70">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3323,22 +4078,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3361,22 +4107,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3399,22 +4136,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3437,22 +4165,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3475,22 +4194,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3513,22 +4223,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3551,22 +4252,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3589,22 +4281,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3627,22 +4310,23 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3665,22 +4349,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3703,22 +4378,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3741,22 +4407,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3779,22 +4436,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Stencil"/>
-        <family val="5"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3817,6 +4465,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3833,6 +4491,393 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Stencil"/>
+        <family val="5"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4096,7 +5141,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -4111,13 +5156,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
@@ -4126,7 +5171,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4150,13 +5195,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -7308,7 +8353,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -7323,13 +8368,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
@@ -7338,7 +8383,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -7362,13 +8407,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -10659,8 +11704,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}" name="テーブル3" displayName="テーブル3" ref="A1:D3" totalsRowShown="0" headerRowDxfId="66">
-  <autoFilter ref="A1:D3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}" name="テーブル3" displayName="テーブル3" ref="A1:D4" totalsRowShown="0" headerRowDxfId="68">
+  <autoFilter ref="A1:D4" xr:uid="{72B0C342-C7E7-4B42-840B-D91D75283B19}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{954C52DA-C907-4F02-9C9B-0B0AC43B93B0}" name="japanese"/>
     <tableColumn id="2" xr3:uid="{5BEDFE98-9498-4EF5-B6FA-0ABD0CB0823D}" name="romaji"/>
@@ -10672,7 +11717,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}" name="テーブル13" displayName="テーブル13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}" name="テーブル13" displayName="テーブル13" ref="A1:D8" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="A1:D8" xr:uid="{C9158672-6DB1-4B5A-8090-32497DA7882D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FDB07802-7B1F-42F0-A8D0-72CFD72D951F}" name="japanese"/>
@@ -10685,8 +11730,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}" name="テーブル2" displayName="テーブル2" ref="A1:D30" totalsRowShown="0" headerRowDxfId="56">
-  <autoFilter ref="A1:D30" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}" name="テーブル2" displayName="テーブル2" ref="A1:D33" totalsRowShown="0" headerRowDxfId="48">
+  <autoFilter ref="A1:D33" xr:uid="{F7BDADD0-754A-4E96-859B-0F48FCEA9477}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D29">
     <sortCondition ref="B1:B29"/>
   </sortState>
@@ -10701,7 +11746,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}" name="テーブル14" displayName="テーブル14" ref="A1:D2" totalsRowShown="0" headerRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}" name="テーブル14" displayName="テーブル14" ref="A1:D2" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="A1:D2" xr:uid="{0AE4A65E-39A8-4C27-BC87-7C3DEB2C24B6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6F4D7220-B923-4646-8D57-6B4DDD485D2A}" name="japanese"/>
@@ -10714,7 +11759,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}" name="テーブル15" displayName="テーブル15" ref="A1:D4" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}" name="テーブル15" displayName="テーブル15" ref="A1:D4" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="A1:D4" xr:uid="{60A8D7CB-3379-4C80-868B-830C3869EBC0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{75559994-DDD8-4845-BEBD-723051133F59}" name="japanese"/>
@@ -10727,7 +11772,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}" name="テーブル16" displayName="テーブル16" ref="A1:D6" totalsRowShown="0" headerRowDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}" name="テーブル16" displayName="テーブル16" ref="A1:D6" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:D6" xr:uid="{78865BCE-070C-4ACD-B8E3-570C52473A9C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B6F19660-6BA9-49F4-B900-3BF333097E57}" name="japanese"/>
@@ -10740,7 +11785,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}" name="テーブル17" displayName="テーブル17" ref="A1:D2" totalsRowShown="0" headerRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}" name="テーブル17" displayName="テーブル17" ref="A1:D2" totalsRowShown="0" headerRowDxfId="40">
   <autoFilter ref="A1:D2" xr:uid="{5B2C12E7-E437-4CA0-A818-A0133C3554FB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CB8CF4B6-9B55-4A8E-BE24-83767C1EB42D}" name="japanese"/>
@@ -10753,7 +11798,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}" name="テーブル18" displayName="テーブル18" ref="A1:D2" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}" name="テーブル18" displayName="テーブル18" ref="A1:D2" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="A1:D2" xr:uid="{D7F8EB61-37AA-4836-A412-5CFEFB1824AB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{3967FA74-0D97-4BD8-A0E9-6758B94F6AC1}" name="japanese"/>
@@ -10766,7 +11811,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}" name="テーブル19" displayName="テーブル19" ref="A1:D2" totalsRowShown="0" headerRowDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}" name="テーブル19" displayName="テーブル19" ref="A1:D2" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A1:D2" xr:uid="{F2DA86D3-C351-4516-B627-8AAC4B8D5413}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8EBD6EF9-2908-4317-99E3-F699646DC195}" name="japanese"/>
@@ -10779,7 +11824,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}" name="テーブル20" displayName="テーブル20" ref="A1:D4" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}" name="テーブル20" displayName="テーブル20" ref="A1:D4" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:D4" xr:uid="{7FC6F303-A351-4581-87B8-364D685638DB}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E7993B1E-9ED2-49A7-8C44-C165883DBF0B}" name="japanese"/>
@@ -10792,36 +11837,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}" name="テーブル21" displayName="テーブル21" ref="A1:D19" totalsRowShown="0" headerRowDxfId="48">
-  <autoFilter ref="A1:D19" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
-    <sortCondition ref="B1:B17"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FEE18187-4B14-4B83-8264-5B05AC5F635F}" name="japanese"/>
-    <tableColumn id="2" xr3:uid="{0C271259-2BD4-4700-82E6-D5972609235D}" name="romaji"/>
-    <tableColumn id="3" xr3:uid="{888B4499-65EB-48E1-B216-66AB1B4B3514}" name="meaning"/>
-    <tableColumn id="4" xr3:uid="{B54B6CE4-9662-4835-84F1-F89A2D689EF3}" name="comment"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}" name="テーブル4" displayName="テーブル4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="65">
-  <autoFilter ref="A1:D5" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CB0F9EF8-316B-4AAB-966F-3B68DCE090A6}" name="japanese"/>
-    <tableColumn id="2" xr3:uid="{D2A1DC24-5140-4E28-AC90-4F59DEA3EDBE}" name="romaji"/>
-    <tableColumn id="3" xr3:uid="{89B07181-8A77-41F3-AEC7-9CA062DE3202}" name="meaning"/>
-    <tableColumn id="4" xr3:uid="{08CEA2BA-9C8C-4D83-ADE8-4D26646E5641}" name="comment"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}" name="テーブル22" displayName="テーブル22" ref="A1:D14" totalsRowShown="0" headerRowDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}" name="テーブル22" displayName="テーブル22" ref="A1:D14" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:D14" xr:uid="{B0D2CA6F-BACB-4374-836F-E70364A808A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D12">
     <sortCondition ref="B1:B12"/>
@@ -10836,9 +11852,38 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}" name="テーブル4" displayName="テーブル4" ref="A1:D5" totalsRowShown="0" headerRowDxfId="66">
+  <autoFilter ref="A1:D5" xr:uid="{8D1DA659-29A1-4B44-ABCE-3A15723D84AB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CB0F9EF8-316B-4AAB-966F-3B68DCE090A6}" name="japanese"/>
+    <tableColumn id="2" xr3:uid="{D2A1DC24-5140-4E28-AC90-4F59DEA3EDBE}" name="romaji"/>
+    <tableColumn id="3" xr3:uid="{89B07181-8A77-41F3-AEC7-9CA062DE3202}" name="meaning"/>
+    <tableColumn id="4" xr3:uid="{08CEA2BA-9C8C-4D83-ADE8-4D26646E5641}" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}" name="テーブル21" displayName="テーブル21" ref="A1:D20" totalsRowShown="0" headerRowDxfId="32">
+  <autoFilter ref="A1:D20" xr:uid="{55C54C23-F4C2-4E9B-B76F-D2E2F223021E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+    <sortCondition ref="B1:B17"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FEE18187-4B14-4B83-8264-5B05AC5F635F}" name="japanese"/>
+    <tableColumn id="2" xr3:uid="{0C271259-2BD4-4700-82E6-D5972609235D}" name="romaji"/>
+    <tableColumn id="3" xr3:uid="{888B4499-65EB-48E1-B216-66AB1B4B3514}" name="meaning"/>
+    <tableColumn id="4" xr3:uid="{B54B6CE4-9662-4835-84F1-F89A2D689EF3}" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}" name="テーブル23" displayName="テーブル23" ref="A1:D3" totalsRowShown="0" headerRowDxfId="46">
-  <autoFilter ref="A1:D3" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}" name="テーブル23" displayName="テーブル23" ref="A1:D4" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="A1:D4" xr:uid="{6A944446-A6DB-4449-97AB-BB6811D21379}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F5E1015A-1D50-469F-9587-52639A5F7C0C}" name="japanese"/>
     <tableColumn id="2" xr3:uid="{E2FCA547-2A74-402F-BE54-4450C8B4A1DA}" name="romaji"/>
@@ -10850,7 +11895,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}" name="テーブル24" displayName="テーブル24" ref="A1:D2" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}" name="テーブル24" displayName="テーブル24" ref="A1:D2" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:D2" xr:uid="{D95FF211-1C95-4E2F-A0A5-69AE67476E3B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{942531FD-9514-4FD4-BB98-F5A1EF03124D}" name="japanese"/>
@@ -10863,7 +11908,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}" name="テーブル25" displayName="テーブル25" ref="A1:D2" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}" name="テーブル25" displayName="テーブル25" ref="A1:D2" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:D2" xr:uid="{4E6B125F-A2B6-41BA-9AAB-C6F8FA4F3430}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AB4D6CE9-8701-4455-A497-E0829C7B7DC1}" name="japanese"/>
@@ -10876,7 +11921,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}" name="テーブル26" displayName="テーブル26" ref="A1:D2" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}" name="テーブル26" displayName="テーブル26" ref="A1:D2" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:D2" xr:uid="{049292C7-C29D-4173-BA4C-125FE0F23776}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0B76D8C5-851F-4DA8-8B01-059BB0AE31E1}" name="japanese"/>
@@ -10889,7 +11934,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}" name="テーブル27" displayName="テーブル27" ref="A1:D2" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}" name="テーブル27" displayName="テーブル27" ref="A1:D2" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A1:D2" xr:uid="{05C08EFA-EED7-4FCF-B546-83CE762B6E6F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EF31FAC3-C436-4473-A4B9-5E72EF3C6506}" name="japanese"/>
@@ -10902,7 +11947,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}" name="テーブル28" displayName="テーブル28" ref="A1:D2" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}" name="テーブル28" displayName="テーブル28" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:D2" xr:uid="{C04192EC-F4FD-4564-8B3D-189DE65EB149}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{AE3CA9A7-C4E6-477B-A1FA-FFD0B253B8BA}" name="japanese"/>
@@ -10915,7 +11960,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}" name="テーブル282" displayName="テーブル282" ref="A1:E38" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}" name="テーブル282" displayName="テーブル282" ref="A1:E38" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:E38" xr:uid="{D5C01460-4CDB-4FF8-82B0-E9D90B3736CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
     <sortCondition ref="A1:A38"/>
@@ -10932,10 +11977,10 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{DCE4D991-55B0-402E-BADE-84929DB848D5}" name="テーブル28230" displayName="テーブル28230" ref="A1:E12" totalsRowShown="0" headerRowDxfId="39">
-  <autoFilter ref="A1:E12" xr:uid="{DCE4D991-55B0-402E-BADE-84929DB848D5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E2">
-    <sortCondition ref="A1:A2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{DCE4D991-55B0-402E-BADE-84929DB848D5}" name="テーブル28230" displayName="テーブル28230" ref="A1:E48" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:E48" xr:uid="{DCE4D991-55B0-402E-BADE-84929DB848D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
+    <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{248EACB4-0F59-44A0-9BAB-63C5E37AE4E8}" name="Pattern"/>
@@ -10962,7 +12007,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}" name="テーブル7" displayName="テーブル7" ref="A1:D2" totalsRowShown="0" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}" name="テーブル7" displayName="テーブル7" ref="A1:D2" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="A1:D2" xr:uid="{83C99793-1D9A-4337-88A7-5231C232035A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1130F660-EC73-42DB-9C08-62DEA50791C7}" name="japanese"/>
@@ -10975,7 +12020,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}" name="テーブル8" displayName="テーブル8" ref="A1:D2" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}" name="テーブル8" displayName="テーブル8" ref="A1:D2" totalsRowShown="0" headerRowDxfId="60">
   <autoFilter ref="A1:D2" xr:uid="{592807C4-6185-4040-9EDC-E542CF0B9F18}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{FA9B534B-8CDF-4D49-8D77-6492A98A17F5}" name="japanese"/>
@@ -10988,8 +12033,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}" name="テーブル9" displayName="テーブル9" ref="A1:D3" totalsRowShown="0" headerRowDxfId="61">
-  <autoFilter ref="A1:D3" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}" name="テーブル9" displayName="テーブル9" ref="A1:D5" totalsRowShown="0" headerRowDxfId="58">
+  <autoFilter ref="A1:D5" xr:uid="{EDD8111C-DC31-439C-8912-828212DC0259}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{61A6666F-6884-4384-84C2-E8B782197211}" name="japanese"/>
     <tableColumn id="2" xr3:uid="{AF6A1940-308A-4282-8D31-31D6FAEA7D57}" name="romaji"/>
@@ -11001,7 +12046,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}" name="テーブル10" displayName="テーブル10" ref="A1:D5" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}" name="テーブル10" displayName="テーブル10" ref="A1:D5" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:D5" xr:uid="{89C9A0FA-F5E7-435D-B54E-36107EF88D58}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{67A1A940-B08B-47FF-B674-B23CAFA5ED32}" name="japanese"/>
@@ -11014,8 +12059,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}" name="テーブル11" displayName="テーブル11" ref="A1:D9" totalsRowShown="0" headerRowDxfId="59">
-  <autoFilter ref="A1:D9" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}" name="テーブル11" displayName="テーブル11" ref="A1:D10" totalsRowShown="0" headerRowDxfId="54">
+  <autoFilter ref="A1:D10" xr:uid="{D27DA212-303E-4100-A5E9-D1B57D4AA4E0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
     <sortCondition ref="B1:B6"/>
   </sortState>
@@ -11030,7 +12075,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}" name="テーブル12" displayName="テーブル12" ref="A1:D4" totalsRowShown="0" headerRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}" name="テーブル12" displayName="テーブル12" ref="A1:D4" totalsRowShown="0" headerRowDxfId="52">
   <autoFilter ref="A1:D4" xr:uid="{563EA61E-CA3C-4689-AF9A-DDCCFD431D34}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F3034D7B-DF3A-4899-957A-36ECBF7B5181}" name="japanese"/>
@@ -11429,7 +12474,7 @@
     <row r="3" spans="1:26" ht="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>COUNTIF(A!$A:$A,"*")-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f>COUNTIF(B!$A:$A,"*")-1</f>
@@ -11449,7 +12494,7 @@
       </c>
       <c r="F3">
         <f>COUNTIF(F!$A:$A,"*")-1</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f>COUNTIF(G!$A:$A,"*")-1</f>
@@ -11457,7 +12502,7 @@
       </c>
       <c r="H3">
         <f>COUNTIF(H!$A:$A,"*")-1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <f>COUNTIF(I!$A:$A,"*")-1</f>
@@ -11469,7 +12514,7 @@
       </c>
       <c r="K3">
         <f>COUNTIF(K!$A:$A,"*")-1</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L3">
         <f>COUNTIF(L!$A:$A,"*")-1</f>
@@ -11501,7 +12546,7 @@
       </c>
       <c r="S3">
         <f>COUNTIF(S!$A:$A,"*")-1</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T3">
         <f>COUNTIF(T!$A:$A,"*")-1</f>
@@ -11509,7 +12554,7 @@
       </c>
       <c r="U3">
         <f>COUNTIF(U!$A:$A,"*")-1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V3">
         <f>COUNTIF(V!$A:$A,"*")-1</f>
@@ -11606,7 +12651,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11725,7 +12770,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -11736,10 +12781,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC1919D-59CD-4C6F-B9DB-4D5499F39E84}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -11978,13 +13023,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" t="s">
+        <v>481</v>
+      </c>
+      <c r="C21" t="s">
         <v>480</v>
-      </c>
-      <c r="B21" t="s">
-        <v>482</v>
-      </c>
-      <c r="C21" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12077,19 +13122,52 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
+        <v>492</v>
+      </c>
+      <c r="B30" t="s">
         <v>493</v>
       </c>
-      <c r="B30" t="s">
-        <v>494</v>
-      </c>
       <c r="C30" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>577</v>
+      </c>
+      <c r="B31" t="s">
+        <v>578</v>
+      </c>
+      <c r="C31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>604</v>
+      </c>
+      <c r="B32" t="s">
+        <v>606</v>
+      </c>
+      <c r="C32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>707</v>
+      </c>
+      <c r="B33" t="s">
+        <v>708</v>
+      </c>
+      <c r="C33" t="s">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12131,7 +13209,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12206,7 +13284,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12280,30 +13358,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" t="s">
         <v>514</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>515</v>
-      </c>
-      <c r="C5" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>526</v>
+      </c>
+      <c r="B6" t="s">
         <v>527</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>528</v>
-      </c>
-      <c r="C6" t="s">
-        <v>529</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12345,7 +13423,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12385,7 +13463,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12427,7 +13505,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12502,7 +13580,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12513,10 +13591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B5803C-B582-4AFB-A1EE-57634425AB2D}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12563,10 +13641,21 @@
         <v>71</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -12576,252 +13665,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BCF391-2103-45BF-8E99-CF9649F03CCF}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>311</v>
-      </c>
-      <c r="B18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>539</v>
-      </c>
-      <c r="B19" t="s">
-        <v>540</v>
-      </c>
-      <c r="C19" t="s">
-        <v>541</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D84181B-499F-4F28-8ED7-E19046615F54}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -12974,33 +13817,290 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>488</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BCF391-2103-45BF-8E99-CF9649F03CCF}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B19" t="s">
+        <v>539</v>
+      </c>
+      <c r="C19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>670</v>
+      </c>
+      <c r="B20" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" t="s">
+        <v>672</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13011,9 +14111,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F97FA21-7DE5-4B7C-BC16-B586C4AD271C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13059,10 +14161,21 @@
         <v>247</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13104,7 +14217,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13157,7 +14270,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13199,7 +14312,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13241,7 +14354,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13283,7 +14396,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13297,7 +14410,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -13334,7 +14447,7 @@
         <v>324</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D2" t="s">
         <v>325</v>
@@ -13351,7 +14464,7 @@
         <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
         <v>358</v>
@@ -13368,7 +14481,7 @@
         <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
         <v>352</v>
@@ -13385,7 +14498,7 @@
         <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D5" t="s">
         <v>328</v>
@@ -13396,16 +14509,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" t="s">
         <v>422</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" t="s">
         <v>423</v>
-      </c>
-      <c r="C6" t="s">
-        <v>447</v>
-      </c>
-      <c r="D6" t="s">
-        <v>424</v>
       </c>
       <c r="E6" t="s">
         <v>329</v>
@@ -13419,7 +14532,7 @@
         <v>360</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D7" t="s">
         <v>361</v>
@@ -13436,7 +14549,7 @@
         <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D8" t="s">
         <v>364</v>
@@ -13447,16 +14560,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" t="s">
         <v>434</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" t="s">
         <v>435</v>
-      </c>
-      <c r="C9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D9" t="s">
-        <v>436</v>
       </c>
       <c r="E9" t="s">
         <v>329</v>
@@ -13470,7 +14583,7 @@
         <v>394</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D10" t="s">
         <v>395</v>
@@ -13487,7 +14600,7 @@
         <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D11" t="s">
         <v>407</v>
@@ -13504,10 +14617,10 @@
         <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E12" t="s">
         <v>329</v>
@@ -13521,7 +14634,7 @@
         <v>382</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D13" t="s">
         <v>383</v>
@@ -13538,7 +14651,7 @@
         <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D14" t="s">
         <v>377</v>
@@ -13549,16 +14662,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" t="s">
         <v>425</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>455</v>
+      </c>
+      <c r="D15" t="s">
         <v>426</v>
-      </c>
-      <c r="C15" t="s">
-        <v>456</v>
-      </c>
-      <c r="D15" t="s">
-        <v>427</v>
       </c>
       <c r="E15" t="s">
         <v>329</v>
@@ -13572,7 +14685,7 @@
         <v>400</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D16" t="s">
         <v>401</v>
@@ -13589,7 +14702,7 @@
         <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D17" t="s">
         <v>367</v>
@@ -13606,7 +14719,7 @@
         <v>331</v>
       </c>
       <c r="C18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D18" t="s">
         <v>332</v>
@@ -13623,7 +14736,7 @@
         <v>385</v>
       </c>
       <c r="C19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D19" t="s">
         <v>386</v>
@@ -13640,7 +14753,7 @@
         <v>373</v>
       </c>
       <c r="C20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D20" t="s">
         <v>374</v>
@@ -13657,7 +14770,7 @@
         <v>379</v>
       </c>
       <c r="C21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
         <v>380</v>
@@ -13674,7 +14787,7 @@
         <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D22" t="s">
         <v>388</v>
@@ -13685,16 +14798,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
+        <v>415</v>
+      </c>
+      <c r="B23" t="s">
         <v>416</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D23" t="s">
         <v>417</v>
-      </c>
-      <c r="C23" t="s">
-        <v>464</v>
-      </c>
-      <c r="D23" t="s">
-        <v>418</v>
       </c>
       <c r="E23" t="s">
         <v>329</v>
@@ -13708,7 +14821,7 @@
         <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D24" t="s">
         <v>319</v>
@@ -13719,16 +14832,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" t="s">
         <v>431</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>465</v>
+      </c>
+      <c r="D25" t="s">
         <v>432</v>
-      </c>
-      <c r="C25" t="s">
-        <v>466</v>
-      </c>
-      <c r="D25" t="s">
-        <v>433</v>
       </c>
       <c r="E25" t="s">
         <v>329</v>
@@ -13736,16 +14849,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26" t="s">
         <v>428</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D26" t="s">
         <v>429</v>
-      </c>
-      <c r="C26" t="s">
-        <v>467</v>
-      </c>
-      <c r="D26" t="s">
-        <v>430</v>
       </c>
       <c r="E26" t="s">
         <v>329</v>
@@ -13759,7 +14872,7 @@
         <v>354</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D27" t="s">
         <v>355</v>
@@ -13770,16 +14883,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" t="s">
         <v>419</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D28" t="s">
         <v>420</v>
-      </c>
-      <c r="C28" t="s">
-        <v>469</v>
-      </c>
-      <c r="D28" t="s">
-        <v>421</v>
       </c>
       <c r="E28" t="s">
         <v>329</v>
@@ -13793,7 +14906,7 @@
         <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D29" t="s">
         <v>346</v>
@@ -13807,7 +14920,7 @@
         <v>348</v>
       </c>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D30" t="s">
         <v>349</v>
@@ -13818,16 +14931,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31" t="s">
         <v>437</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>471</v>
+      </c>
+      <c r="D31" t="s">
         <v>438</v>
-      </c>
-      <c r="C31" t="s">
-        <v>472</v>
-      </c>
-      <c r="D31" t="s">
-        <v>439</v>
       </c>
       <c r="E31" t="s">
         <v>329</v>
@@ -13835,16 +14948,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32" t="s">
         <v>440</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D32" t="s">
         <v>441</v>
-      </c>
-      <c r="C32" t="s">
-        <v>473</v>
-      </c>
-      <c r="D32" t="s">
-        <v>442</v>
       </c>
       <c r="E32" t="s">
         <v>329</v>
@@ -13858,7 +14971,7 @@
         <v>321</v>
       </c>
       <c r="C33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D33" t="s">
         <v>322</v>
@@ -13875,7 +14988,7 @@
         <v>403</v>
       </c>
       <c r="C34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D34" t="s">
         <v>404</v>
@@ -13892,7 +15005,7 @@
         <v>397</v>
       </c>
       <c r="C35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D35" t="s">
         <v>398</v>
@@ -13909,7 +15022,7 @@
         <v>369</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D36" t="s">
         <v>370</v>
@@ -13926,10 +15039,10 @@
         <v>409</v>
       </c>
       <c r="C37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E37" t="s">
         <v>329</v>
@@ -13943,7 +15056,7 @@
         <v>391</v>
       </c>
       <c r="C38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D38" t="s">
         <v>392</v>
@@ -13955,7 +15068,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C1:C13">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -13966,10 +15079,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3804E47-1C66-4555-9677-D8029AB2C143}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14000,47 +15113,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="D3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E3" t="s">
-        <v>329</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="C4" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="E4" t="s">
         <v>329</v>
@@ -14048,16 +15158,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="D5" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="E5" t="s">
         <v>329</v>
@@ -14065,16 +15175,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D6" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="E6" t="s">
         <v>329</v>
@@ -14082,16 +15192,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>532</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="D7" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="E7" t="s">
         <v>329</v>
@@ -14099,16 +15209,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
       <c r="C8" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="E8" t="s">
         <v>329</v>
@@ -14116,70 +15226,679 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="C9" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="D9" t="s">
-        <v>542</v>
+        <v>564</v>
+      </c>
+      <c r="E9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C10" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D10" t="s">
-        <v>550</v>
-      </c>
-      <c r="E10" t="s">
-        <v>329</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D11" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B12" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C12" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="D12" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E12" t="s">
         <v>329</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C15" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>572</v>
+      </c>
+      <c r="B16" t="s">
+        <v>573</v>
+      </c>
+      <c r="C16" t="s">
+        <v>584</v>
+      </c>
+      <c r="D16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B17" t="s">
+        <v>576</v>
+      </c>
+      <c r="C17" t="s">
+        <v>583</v>
+      </c>
+      <c r="D17" t="s">
+        <v>588</v>
+      </c>
+      <c r="E17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18" t="s">
+        <v>590</v>
+      </c>
+      <c r="C18" t="s">
+        <v>591</v>
+      </c>
+      <c r="D18" t="s">
+        <v>592</v>
+      </c>
+      <c r="E18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B19" t="s">
+        <v>595</v>
+      </c>
+      <c r="C19" t="s">
+        <v>593</v>
+      </c>
+      <c r="D19" t="s">
+        <v>596</v>
+      </c>
+      <c r="E19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>597</v>
+      </c>
+      <c r="B20" t="s">
+        <v>598</v>
+      </c>
+      <c r="C20" t="s">
+        <v>602</v>
+      </c>
+      <c r="D20" t="s">
+        <v>603</v>
+      </c>
+      <c r="E20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>607</v>
+      </c>
+      <c r="B21" t="s">
+        <v>608</v>
+      </c>
+      <c r="C21" t="s">
+        <v>612</v>
+      </c>
+      <c r="D21" t="s">
+        <v>611</v>
+      </c>
+      <c r="E21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>613</v>
+      </c>
+      <c r="B22" t="s">
+        <v>614</v>
+      </c>
+      <c r="C22" t="s">
+        <v>615</v>
+      </c>
+      <c r="D22" t="s">
+        <v>616</v>
+      </c>
+      <c r="E22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>617</v>
+      </c>
+      <c r="B23" t="s">
+        <v>618</v>
+      </c>
+      <c r="C23" t="s">
+        <v>619</v>
+      </c>
+      <c r="D23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>621</v>
+      </c>
+      <c r="B24" t="s">
+        <v>622</v>
+      </c>
+      <c r="C24" t="s">
+        <v>626</v>
+      </c>
+      <c r="D24" t="s">
+        <v>627</v>
+      </c>
+      <c r="E24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>628</v>
+      </c>
+      <c r="B25" t="s">
+        <v>629</v>
+      </c>
+      <c r="C25" t="s">
+        <v>634</v>
+      </c>
+      <c r="D25" t="s">
+        <v>630</v>
+      </c>
+      <c r="E25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>631</v>
+      </c>
+      <c r="B26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D26" t="s">
+        <v>635</v>
+      </c>
+      <c r="E26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>636</v>
+      </c>
+      <c r="B27" t="s">
+        <v>637</v>
+      </c>
+      <c r="C27" t="s">
+        <v>639</v>
+      </c>
+      <c r="D27" t="s">
+        <v>638</v>
+      </c>
+      <c r="E27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>640</v>
+      </c>
+      <c r="B28" t="s">
+        <v>641</v>
+      </c>
+      <c r="C28" t="s">
+        <v>643</v>
+      </c>
+      <c r="D28" t="s">
+        <v>642</v>
+      </c>
+      <c r="E28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B29" t="s">
+        <v>645</v>
+      </c>
+      <c r="C29" t="s">
+        <v>646</v>
+      </c>
+      <c r="D29" t="s">
+        <v>647</v>
+      </c>
+      <c r="E29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>648</v>
+      </c>
+      <c r="B30" t="s">
+        <v>649</v>
+      </c>
+      <c r="C30" t="s">
+        <v>650</v>
+      </c>
+      <c r="D30" t="s">
+        <v>651</v>
+      </c>
+      <c r="E30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>652</v>
+      </c>
+      <c r="B31" t="s">
+        <v>653</v>
+      </c>
+      <c r="C31" t="s">
+        <v>654</v>
+      </c>
+      <c r="D31" t="s">
+        <v>655</v>
+      </c>
+      <c r="E31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>656</v>
+      </c>
+      <c r="B32" t="s">
+        <v>657</v>
+      </c>
+      <c r="C32" t="s">
+        <v>665</v>
+      </c>
+      <c r="D32" t="s">
+        <v>658</v>
+      </c>
+      <c r="E32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>659</v>
+      </c>
+      <c r="B33" t="s">
+        <v>660</v>
+      </c>
+      <c r="C33" t="s">
+        <v>666</v>
+      </c>
+      <c r="D33" t="s">
+        <v>661</v>
+      </c>
+      <c r="E33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>662</v>
+      </c>
+      <c r="B34" t="s">
+        <v>663</v>
+      </c>
+      <c r="C34" t="s">
+        <v>664</v>
+      </c>
+      <c r="D34" t="s">
+        <v>667</v>
+      </c>
+      <c r="E34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>668</v>
+      </c>
+      <c r="B35" t="s">
+        <v>669</v>
+      </c>
+      <c r="C35" t="s">
+        <v>673</v>
+      </c>
+      <c r="D35" t="s">
+        <v>674</v>
+      </c>
+      <c r="E35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>675</v>
+      </c>
+      <c r="B36" t="s">
+        <v>676</v>
+      </c>
+      <c r="C36" t="s">
+        <v>685</v>
+      </c>
+      <c r="D36" t="s">
+        <v>677</v>
+      </c>
+      <c r="E36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>678</v>
+      </c>
+      <c r="B37" t="s">
+        <v>679</v>
+      </c>
+      <c r="C37" t="s">
+        <v>684</v>
+      </c>
+      <c r="D37" t="s">
+        <v>680</v>
+      </c>
+      <c r="E37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>681</v>
+      </c>
+      <c r="B38" t="s">
+        <v>682</v>
+      </c>
+      <c r="C38" t="s">
+        <v>683</v>
+      </c>
+      <c r="D38" t="s">
+        <v>686</v>
+      </c>
+      <c r="E38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>687</v>
+      </c>
+      <c r="B39" t="s">
+        <v>688</v>
+      </c>
+      <c r="C39" t="s">
+        <v>689</v>
+      </c>
+      <c r="D39" t="s">
+        <v>690</v>
+      </c>
+      <c r="E39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" t="s">
+        <v>692</v>
+      </c>
+      <c r="C40" t="s">
+        <v>693</v>
+      </c>
+      <c r="D40" t="s">
+        <v>694</v>
+      </c>
+      <c r="E40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>695</v>
+      </c>
+      <c r="B41" t="s">
+        <v>696</v>
+      </c>
+      <c r="C41" t="s">
+        <v>697</v>
+      </c>
+      <c r="D41" t="s">
+        <v>698</v>
+      </c>
+      <c r="E41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>699</v>
+      </c>
+      <c r="B42" t="s">
+        <v>700</v>
+      </c>
+      <c r="C42" t="s">
+        <v>701</v>
+      </c>
+      <c r="D42" t="s">
+        <v>702</v>
+      </c>
+      <c r="E42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>703</v>
+      </c>
+      <c r="B43" t="s">
+        <v>704</v>
+      </c>
+      <c r="C43" t="s">
+        <v>705</v>
+      </c>
+      <c r="D43" t="s">
+        <v>706</v>
+      </c>
+      <c r="E43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>710</v>
+      </c>
+      <c r="B44" t="s">
+        <v>711</v>
+      </c>
+      <c r="C44" t="s">
+        <v>712</v>
+      </c>
+      <c r="D44" t="s">
+        <v>713</v>
+      </c>
+      <c r="E44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>714</v>
+      </c>
+      <c r="B45" t="s">
+        <v>715</v>
+      </c>
+      <c r="C45" t="s">
+        <v>719</v>
+      </c>
+      <c r="D45" t="s">
+        <v>720</v>
+      </c>
+      <c r="E45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>721</v>
+      </c>
+      <c r="B46" t="s">
+        <v>722</v>
+      </c>
+      <c r="C46" t="s">
+        <v>723</v>
+      </c>
+      <c r="D46" t="s">
+        <v>724</v>
+      </c>
+      <c r="E46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>725</v>
+      </c>
+      <c r="B47" t="s">
+        <v>726</v>
+      </c>
+      <c r="C47" t="s">
+        <v>727</v>
+      </c>
+      <c r="D47" t="s">
+        <v>728</v>
+      </c>
+      <c r="E47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>729</v>
+      </c>
+      <c r="B48" t="s">
+        <v>730</v>
+      </c>
+      <c r="C48" t="s">
+        <v>731</v>
+      </c>
+      <c r="D48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E48" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C1:C12">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  <conditionalFormatting sqref="C1:C48">
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14265,7 +15984,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14276,10 +15995,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D163A9-17D1-4EC6-B1D7-ED9F9F31F27F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14312,7 +16031,7 @@
         <v>413</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>414</v>
+        <v>557</v>
       </c>
       <c r="D2" t="s">
         <v>411</v>
@@ -14320,13 +16039,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" t="s">
         <v>495</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>496</v>
-      </c>
-      <c r="D3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -14334,35 +16053,49 @@
         <v>402</v>
       </c>
       <c r="B4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C4" t="s">
         <v>498</v>
-      </c>
-      <c r="C4" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" t="s">
         <v>503</v>
       </c>
-      <c r="C6" t="s">
-        <v>504</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -14402,7 +16135,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14455,7 +16188,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14508,7 +16241,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14519,10 +16252,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089C906B-B15E-466F-80D7-2CADE5F5BCA3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14560,19 +16293,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
         <v>483</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>484</v>
       </c>
-      <c r="C3" t="s">
-        <v>485</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14658,7 +16413,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -14669,10 +16424,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC77E2EE-7C2F-462C-90F4-B1722D2F3551}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14785,10 +16540,21 @@
         <v>295</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>716</v>
+      </c>
+      <c r="B10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10" t="s">
+        <v>718</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
